--- a/ConceptMap-R5-Person-elements-for-R4-Person.xlsx
+++ b/ConceptMap-R5-Person-elements-for-R4-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.9177249-06:00</t>
+    <t>2026-02-09T22:05:44.1264538-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -216,9 +216,6 @@
     <t>deceased[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased</t>
-  </si>
-  <si>
     <t>Person.address</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>maritalStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus</t>
-  </si>
-  <si>
     <t>Person.photo</t>
   </si>
   <si>
@@ -252,22 +246,13 @@
     <t>communication</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication</t>
-  </si>
-  <si>
     <t>Person.communication.language</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication:language</t>
-  </si>
-  <si>
     <t>Person.communication.preferred</t>
   </si>
   <si>
     <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication:preferred</t>
   </si>
   <si>
     <t>Person.managingOrganization</t>
@@ -763,137 +748,137 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2"/>
     </row>

--- a/ConceptMap-R5-Person-elements-for-R4-Person.xlsx
+++ b/ConceptMap-R5-Person-elements-for-R4-Person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.1264538-06:00</t>
+    <t>2026-02-17T14:42:27.4692907-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
